--- a/sor-val-sor.xlsx
+++ b/sor-val-sor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\Elbrus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A787BC-8E8B-48A8-A64A-7157589A13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4211F38-4548-4304-8043-72F7B165848D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="390" windowWidth="16035" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17295" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -728,16 +728,175 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,165 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,22 +1000,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>1386416</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>719666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>740834</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1084" name="Рисунок 2">
+        <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC92FBE-8411-4DB7-91D7-340E379D3DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DEA96B-743D-4FA7-82E6-9D9B0F5A37B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,49 +1024,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6743700" y="6781800"/>
-          <a:ext cx="1419225" cy="1447800"/>
+          <a:off x="6678083" y="6064249"/>
+          <a:ext cx="1852084" cy="1800397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1364,7 +1334,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1432,92 +1402,92 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="91" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="92"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="88"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="68"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1525,17 +1495,17 @@
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
@@ -1543,176 +1513,176 @@
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="113"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="64"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="64"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="67">
         <v>46065</v>
       </c>
-      <c r="C14" s="80"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="70">
         <v>0.375</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="64"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="72"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="105"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="105"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
       <c r="F17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="104"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="105"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -1734,95 +1704,95 @@
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="50">
         <v>5753040435</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="48" t="s">
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="109"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="112"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
@@ -1837,32 +1807,32 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:10" ht="92.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -1878,16 +1848,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1909,13 +1879,13 @@
       <c r="B34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="F34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
@@ -1938,13 +1908,13 @@
       <c r="B36" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
       <c r="F36" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
@@ -1969,6 +1939,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="B20:E20"/>
@@ -1985,50 +1999,6 @@
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
